--- a/backend/media/templates/template_obrigacoes.xlsx
+++ b/backend/media/templates/template_obrigacoes.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Obrigações" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Instruções" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Obrigacoes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Obrigacoes'!$A$1:$K$1</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,20 +28,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="14"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -52,7 +42,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCCCCC"/>
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,10 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -437,88 +429,89 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-    <col width="30" customWidth="1" min="11" max="11"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="22" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="10" max="10"/>
+    <col width="40" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Nome da Empresa</t>
+          <t>CNPJ da Empresa</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Estado (Código)</t>
+          <t>Estado (Codigo)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Tipo de Obrigação</t>
+          <t>Tipo de Obrigacao</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Nome da Obrigação Acessória</t>
+          <t>Nome da Obrigacao Acessoria</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Competência (MM/AAAA)</t>
+          <t>Competencia (MM/AAAA)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Data de Vencimento (YYYY-MM-DD)</t>
+          <t>Data de Vencimento (DD/MM/AAAA)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Prazo de Entrega (YYYY-MM-DD)</t>
+          <t>Prazo de Entrega (DD/MM/AAAA)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Usuário Responsável (Username)</t>
+          <t>Usuario Responsavel (Username)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Data Inicial de Validade (YYYY-MM-DD)</t>
+          <t>Data Inicial de Validade (DD/MM/AAAA)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Data Final de Validade (YYYY-MM-DD)</t>
+          <t>Data Final de Validade (DD/MM/AAAA)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Observações</t>
+          <t>Observacoes</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Empresa Exemplo Ltda</t>
+          <t>12345678000190</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -533,22 +526,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPED - Escrituração Fiscal Digital</t>
+          <t>SPED - Escrituracao Fiscal Digital</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>01/2024</t>
+          <t>10/2025</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2024-01-31</t>
+          <t>20/11/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>25/11/2025</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -558,308 +551,22 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>2024-12-31</t>
+          <t>31/12/2024</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Obrigação mensal</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Outra Empresa S.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>RJ</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Estadual</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ICMS</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>01/2024</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2024-02-28</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2024-03-15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Obrigação mensal</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Terceira Empresa Ltda</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MG</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Municipal</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ISS</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>01/2024</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2024-02-25</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2024-03-10</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Obrigação mensal</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Quarta Empresa S.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>PR</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Regimes Especiais</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>DAS - Simples Nacional</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>01/2024</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2024-02-20</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2024-03-05</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>admin</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>2024-01-01</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>2024-12-31</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Obrigação mensal</t>
+          <t>Obrigacao mensal</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>INSTRUÇÕES PARA PREENCHIMENTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1. Nome da Empresa: Nome completo da empresa (deve existir no sistema)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2. Estado (Código): Código do estado (ex: SP, RJ, MG, PR)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3. Tipo de Obrigação: Federal, Estadual, Municipal ou Regimes Especiais</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4. Nome da Obrigação Acessória: Nome específico (ex: SPED, ICMS, ISS, DAS)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5. Competência: Mês/Ano no formato MM/AAAA (ex: 01/2024)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6. Data de Vencimento: Data no formato YYYY-MM-DD (ex: 2024-01-31)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7. Prazo de Entrega: Data no formato YYYY-MM-DD (opcional)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8. Usuário Responsável: Username do usuário (deve existir no sistema)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9. Data Inicial de Validade: Data no formato YYYY-MM-DD (opcional)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10. Data Final de Validade: Data no formato YYYY-MM-DD (opcional)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11. Observações: Campo livre para observações</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>IMPORTANTE: Não altere os cabeçalhos das colunas!</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <autoFilter ref="A1:K1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>